--- a/biology/Botanique/Adonidia/Adonidia.xlsx
+++ b/biology/Botanique/Adonidia/Adonidia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adonidia est un genre de plantes de la famille des Arecaceae (Palmiers).
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
@@ -545,15 +559,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (24 juin 2018)[2] et World Checklist of Selected Plant Families (WCSP)  (01 janvier 2021)[3]  et Plants of the World online (POWO)                (01 janvier 2021)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (24 juin 2018) et World Checklist of Selected Plant Families (WCSP)  (01 janvier 2021)  et Plants of the World online (POWO)                (01 janvier 2021) :
 Adonidia dransfieldii K.M.Wong, Sugau &amp; Y.W.Low (2015)
 Adonidia merrillii (Becc.) Becc. (1919)
-Selon BioLib                    (24 juin 2018)[5] et NCBI  (24 juin 2018)[6] :
+Selon BioLib                    (24 juin 2018) et NCBI  (24 juin 2018) :
 Adonidia maturbongsii W.J.Baker &amp; Heatubun =  Manjekia maturbongsii
 Adonidia merrillii (Becc.) Becc.
-Selon ITIS      (24 juin 2018)[7], The Plant List            (24 juin 2018)[8] et Tropicos                                           (24 juin 2018)[1] :
+Selon ITIS      (24 juin 2018), The Plant List            (24 juin 2018) et Tropicos                                           (24 juin 2018) :
 Adonidia merrillii (Becc.) Becc.</t>
         </is>
       </c>
